--- a/trim01/08_delimitacion/cronograma proyecto taskmaster.xlsx
+++ b/trim01/08_delimitacion/cronograma proyecto taskmaster.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KV8058\TaskMasterPro\trim01\08_delimitacion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8AB25A3D-1835-4D3F-819E-76EC3D4A1630}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79DDEB4F-5AA6-477C-AFAF-D1C9A6CFC565}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="1" xr2:uid="{194D59EC-A3A2-47E8-8329-7C73CE427850}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="1" xr2:uid="{194D59EC-A3A2-47E8-8329-7C73CE427850}"/>
   </bookViews>
   <sheets>
     <sheet name="Gantt" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,6 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="68">
   <si>
     <t>Linea de Tiempo</t>
   </si>
@@ -217,6 +216,30 @@
   </si>
   <si>
     <t>Nikol bernal</t>
+  </si>
+  <si>
+    <t>II Trimestre</t>
+  </si>
+  <si>
+    <t>Diagrama de clases</t>
+  </si>
+  <si>
+    <t>Diagrama de despliegue</t>
+  </si>
+  <si>
+    <t>Prototipo</t>
+  </si>
+  <si>
+    <t>todos</t>
+  </si>
+  <si>
+    <t>Diagrama de paquetes</t>
+  </si>
+  <si>
+    <t>Diagrama de objectos</t>
+  </si>
+  <si>
+    <t>Mockups</t>
   </si>
 </sst>
 </file>
@@ -736,7 +759,21 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="4">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -825,7 +862,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp23.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="36" fmlaLink="$H$2" horiz="1" max="365" page="10" val="10"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="36" fmlaLink="$H$2" horiz="1" max="365" page="10" val="71"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp24.xml><?xml version="1.0" encoding="utf-8"?>
@@ -861,7 +898,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp31.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Spin" dx="36" fmlaLink="$E$27" max="30" min="1" page="10" val="3"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Spin" dx="36" fmlaLink="$E$27" max="30" min="1" page="10" val="6"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp32.xml><?xml version="1.0" encoding="utf-8"?>
@@ -880,8 +917,32 @@
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Spin" dx="36" fmlaLink="$E$30" max="30" min="1" page="10" val="7"/>
 </file>
 
+<file path=xl/ctrlProps/ctrlProp36.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Spin" dx="36" fmlaLink="$E$33" max="30" min="1" page="10" val="2"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp37.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Spin" dx="36" fmlaLink="$E$34" max="30" min="1" page="10"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp38.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Spin" dx="36" fmlaLink="$E$28" max="30" min="1" page="10" val="12"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp39.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Spin" dx="36" fmlaLink="$E$36" max="30" min="1" page="10"/>
+</file>
+
 <file path=xl/ctrlProps/ctrlProp4.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Spin" dx="36" fmlaLink="$F$10" max="30" page="10" val="4"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp40.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Spin" dx="36" fmlaLink="$E$28" max="30" min="1" page="10" val="12"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp41.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Spin" dx="36" fmlaLink="$E$38" max="30" min="1" page="10" val="12"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp5.xml><?xml version="1.0" encoding="utf-8"?>
@@ -919,7 +980,7 @@
           <xdr:col>7</xdr:col>
           <xdr:colOff>247650</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>260350</xdr:rowOff>
+          <xdr:rowOff>257175</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -969,7 +1030,7 @@
           <xdr:col>7</xdr:col>
           <xdr:colOff>247650</xdr:colOff>
           <xdr:row>7</xdr:row>
-          <xdr:rowOff>260350</xdr:rowOff>
+          <xdr:rowOff>257175</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1019,7 +1080,7 @@
           <xdr:col>7</xdr:col>
           <xdr:colOff>247650</xdr:colOff>
           <xdr:row>8</xdr:row>
-          <xdr:rowOff>260350</xdr:rowOff>
+          <xdr:rowOff>257175</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1069,7 +1130,7 @@
           <xdr:col>7</xdr:col>
           <xdr:colOff>247650</xdr:colOff>
           <xdr:row>9</xdr:row>
-          <xdr:rowOff>260350</xdr:rowOff>
+          <xdr:rowOff>257175</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1119,7 +1180,7 @@
           <xdr:col>7</xdr:col>
           <xdr:colOff>247650</xdr:colOff>
           <xdr:row>11</xdr:row>
-          <xdr:rowOff>260350</xdr:rowOff>
+          <xdr:rowOff>257175</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1169,7 +1230,7 @@
           <xdr:col>7</xdr:col>
           <xdr:colOff>247650</xdr:colOff>
           <xdr:row>12</xdr:row>
-          <xdr:rowOff>260350</xdr:rowOff>
+          <xdr:rowOff>257175</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1219,7 +1280,7 @@
           <xdr:col>7</xdr:col>
           <xdr:colOff>247650</xdr:colOff>
           <xdr:row>13</xdr:row>
-          <xdr:rowOff>260350</xdr:rowOff>
+          <xdr:rowOff>257175</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1269,7 +1330,7 @@
           <xdr:col>7</xdr:col>
           <xdr:colOff>247650</xdr:colOff>
           <xdr:row>14</xdr:row>
-          <xdr:rowOff>260350</xdr:rowOff>
+          <xdr:rowOff>257175</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1319,7 +1380,7 @@
           <xdr:col>7</xdr:col>
           <xdr:colOff>247650</xdr:colOff>
           <xdr:row>16</xdr:row>
-          <xdr:rowOff>260350</xdr:rowOff>
+          <xdr:rowOff>257175</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1369,7 +1430,7 @@
           <xdr:col>7</xdr:col>
           <xdr:colOff>247650</xdr:colOff>
           <xdr:row>17</xdr:row>
-          <xdr:rowOff>260350</xdr:rowOff>
+          <xdr:rowOff>257175</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1419,7 +1480,7 @@
           <xdr:col>7</xdr:col>
           <xdr:colOff>247650</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>260350</xdr:rowOff>
+          <xdr:rowOff>257175</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1469,7 +1530,7 @@
           <xdr:col>7</xdr:col>
           <xdr:colOff>247650</xdr:colOff>
           <xdr:row>19</xdr:row>
-          <xdr:rowOff>260350</xdr:rowOff>
+          <xdr:rowOff>257175</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1513,7 +1574,7 @@
           <xdr:col>8</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>0</xdr:row>
-          <xdr:rowOff>222250</xdr:rowOff>
+          <xdr:rowOff>219075</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>36</xdr:col>
@@ -1568,13 +1629,13 @@
           <xdr:col>6</xdr:col>
           <xdr:colOff>19050</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>12700</xdr:rowOff>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>298450</xdr:colOff>
+          <xdr:colOff>295275</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>279400</xdr:rowOff>
+          <xdr:rowOff>276225</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1618,13 +1679,13 @@
           <xdr:col>6</xdr:col>
           <xdr:colOff>19050</xdr:colOff>
           <xdr:row>7</xdr:row>
-          <xdr:rowOff>12700</xdr:rowOff>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>298450</xdr:colOff>
+          <xdr:colOff>295275</xdr:colOff>
           <xdr:row>7</xdr:row>
-          <xdr:rowOff>279400</xdr:rowOff>
+          <xdr:rowOff>276225</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1672,9 +1733,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>298450</xdr:colOff>
+          <xdr:colOff>295275</xdr:colOff>
           <xdr:row>8</xdr:row>
-          <xdr:rowOff>279400</xdr:rowOff>
+          <xdr:rowOff>276225</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1722,7 +1783,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>298450</xdr:colOff>
+          <xdr:colOff>295275</xdr:colOff>
           <xdr:row>9</xdr:row>
           <xdr:rowOff>285750</xdr:rowOff>
         </xdr:to>
@@ -1772,7 +1833,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>298450</xdr:colOff>
+          <xdr:colOff>295275</xdr:colOff>
           <xdr:row>10</xdr:row>
           <xdr:rowOff>266700</xdr:rowOff>
         </xdr:to>
@@ -1822,9 +1883,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>298450</xdr:colOff>
+          <xdr:colOff>295275</xdr:colOff>
           <xdr:row>11</xdr:row>
-          <xdr:rowOff>279400</xdr:rowOff>
+          <xdr:rowOff>276225</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1872,7 +1933,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>298450</xdr:colOff>
+          <xdr:colOff>295275</xdr:colOff>
           <xdr:row>12</xdr:row>
           <xdr:rowOff>266700</xdr:rowOff>
         </xdr:to>
@@ -1922,7 +1983,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>298450</xdr:colOff>
+          <xdr:colOff>295275</xdr:colOff>
           <xdr:row>13</xdr:row>
           <xdr:rowOff>266700</xdr:rowOff>
         </xdr:to>
@@ -1968,13 +2029,13 @@
           <xdr:col>6</xdr:col>
           <xdr:colOff>19050</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>31750</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>298450</xdr:colOff>
+          <xdr:colOff>295275</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>260350</xdr:rowOff>
+          <xdr:rowOff>257175</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2016,15 +2077,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>0</xdr:row>
           <xdr:rowOff>57150</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>35</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>72328</xdr:colOff>
           <xdr:row>1</xdr:row>
-          <xdr:rowOff>146050</xdr:rowOff>
+          <xdr:rowOff>142875</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2072,7 +2133,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>298450</xdr:colOff>
+          <xdr:colOff>295275</xdr:colOff>
           <xdr:row>16</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -2122,7 +2183,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>298450</xdr:colOff>
+          <xdr:colOff>295275</xdr:colOff>
           <xdr:row>17</xdr:row>
           <xdr:rowOff>266700</xdr:rowOff>
         </xdr:to>
@@ -2168,13 +2229,13 @@
           <xdr:col>6</xdr:col>
           <xdr:colOff>19050</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>31750</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>298450</xdr:colOff>
+          <xdr:colOff>295275</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>260350</xdr:rowOff>
+          <xdr:rowOff>257175</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2218,13 +2279,13 @@
           <xdr:col>6</xdr:col>
           <xdr:colOff>19050</xdr:colOff>
           <xdr:row>20</xdr:row>
-          <xdr:rowOff>31750</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>298450</xdr:colOff>
+          <xdr:colOff>295275</xdr:colOff>
           <xdr:row>20</xdr:row>
-          <xdr:rowOff>260350</xdr:rowOff>
+          <xdr:rowOff>257175</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2272,7 +2333,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>298450</xdr:colOff>
+          <xdr:colOff>295275</xdr:colOff>
           <xdr:row>22</xdr:row>
           <xdr:rowOff>266700</xdr:rowOff>
         </xdr:to>
@@ -2318,13 +2379,13 @@
           <xdr:col>6</xdr:col>
           <xdr:colOff>19050</xdr:colOff>
           <xdr:row>23</xdr:row>
-          <xdr:rowOff>31750</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>298450</xdr:colOff>
+          <xdr:colOff>295275</xdr:colOff>
           <xdr:row>23</xdr:row>
-          <xdr:rowOff>260350</xdr:rowOff>
+          <xdr:rowOff>257175</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2372,7 +2433,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>298450</xdr:colOff>
+          <xdr:colOff>295275</xdr:colOff>
           <xdr:row>24</xdr:row>
           <xdr:rowOff>266700</xdr:rowOff>
         </xdr:to>
@@ -2422,7 +2483,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>298450</xdr:colOff>
+          <xdr:colOff>295275</xdr:colOff>
           <xdr:row>26</xdr:row>
           <xdr:rowOff>266700</xdr:rowOff>
         </xdr:to>
@@ -2468,13 +2529,13 @@
           <xdr:col>6</xdr:col>
           <xdr:colOff>19050</xdr:colOff>
           <xdr:row>27</xdr:row>
-          <xdr:rowOff>31750</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>298450</xdr:colOff>
+          <xdr:colOff>295275</xdr:colOff>
           <xdr:row>27</xdr:row>
-          <xdr:rowOff>260350</xdr:rowOff>
+          <xdr:rowOff>257175</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2518,13 +2579,13 @@
           <xdr:col>6</xdr:col>
           <xdr:colOff>19050</xdr:colOff>
           <xdr:row>28</xdr:row>
-          <xdr:rowOff>31750</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>298450</xdr:colOff>
+          <xdr:colOff>295275</xdr:colOff>
           <xdr:row>28</xdr:row>
-          <xdr:rowOff>260350</xdr:rowOff>
+          <xdr:rowOff>257175</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2568,13 +2629,13 @@
           <xdr:col>6</xdr:col>
           <xdr:colOff>19050</xdr:colOff>
           <xdr:row>19</xdr:row>
-          <xdr:rowOff>31750</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>298450</xdr:colOff>
+          <xdr:colOff>295275</xdr:colOff>
           <xdr:row>19</xdr:row>
-          <xdr:rowOff>260350</xdr:rowOff>
+          <xdr:rowOff>257175</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2618,13 +2679,13 @@
           <xdr:col>6</xdr:col>
           <xdr:colOff>19050</xdr:colOff>
           <xdr:row>29</xdr:row>
-          <xdr:rowOff>31750</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>298450</xdr:colOff>
+          <xdr:colOff>295275</xdr:colOff>
           <xdr:row>29</xdr:row>
-          <xdr:rowOff>260350</xdr:rowOff>
+          <xdr:rowOff>257175</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2635,6 +2696,306 @@
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                   <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000040080000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>19050</xdr:colOff>
+          <xdr:row>32</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>295275</xdr:colOff>
+          <xdr:row>32</xdr:row>
+          <xdr:rowOff>266700</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2113" name="Spinner 65" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2113"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9692BA0D-4ACB-4843-A9D7-A2C5E497E3A6}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>19050</xdr:colOff>
+          <xdr:row>33</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>295275</xdr:colOff>
+          <xdr:row>33</xdr:row>
+          <xdr:rowOff>257175</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2114" name="Spinner 66" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2114"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D20F14A1-0443-4D0A-9A94-D1F7F2582E27}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>19050</xdr:colOff>
+          <xdr:row>34</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>295275</xdr:colOff>
+          <xdr:row>34</xdr:row>
+          <xdr:rowOff>257175</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2115" name="Spinner 67" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2115"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77FD68D6-B4A9-47CA-ABB8-BCDB29897F08}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>19050</xdr:colOff>
+          <xdr:row>35</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>295275</xdr:colOff>
+          <xdr:row>35</xdr:row>
+          <xdr:rowOff>257175</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2117" name="Spinner 69" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2117"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16619C50-7038-4E65-961B-8F9F945A639E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>19050</xdr:colOff>
+          <xdr:row>36</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>295275</xdr:colOff>
+          <xdr:row>36</xdr:row>
+          <xdr:rowOff>257175</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2118" name="Spinner 70" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2118"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63B74D96-67C3-4DB4-A435-BB6BFC29B7DE}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>19050</xdr:colOff>
+          <xdr:row>37</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>295275</xdr:colOff>
+          <xdr:row>37</xdr:row>
+          <xdr:rowOff>257175</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2119" name="Spinner 71" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2119"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9BE2CD9F-F953-4B89-A612-F07264350CAC}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2665,9 +3026,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2705,7 +3066,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2811,7 +3172,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2953,7 +3314,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2967,19 +3328,19 @@
       <selection activeCell="M2" sqref="M2:N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.1796875" customWidth="1"/>
-    <col min="3" max="3" width="17.81640625" customWidth="1"/>
-    <col min="4" max="4" width="1.81640625" customWidth="1"/>
-    <col min="5" max="5" width="10.54296875" customWidth="1"/>
-    <col min="6" max="6" width="5.453125" customWidth="1"/>
-    <col min="7" max="7" width="12.26953125" customWidth="1"/>
-    <col min="8" max="36" width="3.7265625" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" customWidth="1"/>
+    <col min="4" max="4" width="1.85546875" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" customWidth="1"/>
+    <col min="6" max="6" width="5.42578125" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" customWidth="1"/>
+    <col min="8" max="36" width="3.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="18.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:36" ht="18.75" x14ac:dyDescent="0.25">
       <c r="I1" s="40" t="s">
         <v>0</v>
       </c>
@@ -3011,7 +3372,7 @@
       <c r="AI1" s="40"/>
       <c r="AJ1" s="40"/>
     </row>
-    <row r="2" spans="1:36" ht="20.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:36" ht="20.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I2" s="17"/>
       <c r="J2" s="17"/>
       <c r="K2" s="17"/>
@@ -3024,7 +3385,7 @@
       </c>
       <c r="N2" s="48"/>
     </row>
-    <row r="3" spans="1:36" ht="20.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:36" ht="20.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I3" s="49">
         <f>I4</f>
         <v>44470</v>
@@ -3066,7 +3427,7 @@
       <c r="AI3" s="53"/>
       <c r="AJ3" s="54"/>
     </row>
-    <row r="4" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="46" t="s">
         <v>1</v>
       </c>
@@ -3192,7 +3553,7 @@
         <v>44497</v>
       </c>
     </row>
-    <row r="5" spans="1:36" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:36" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
@@ -3326,7 +3687,7 @@
         <v>jue</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
@@ -3365,7 +3726,7 @@
       <c r="AI6" s="16"/>
       <c r="AJ6" s="16"/>
     </row>
-    <row r="7" spans="1:36" ht="23.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:36" ht="23.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -3416,7 +3777,7 @@
       <c r="AI7" s="16"/>
       <c r="AJ7" s="16"/>
     </row>
-    <row r="8" spans="1:36" ht="23.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:36" ht="23.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -3467,7 +3828,7 @@
       <c r="AI8" s="16"/>
       <c r="AJ8" s="16"/>
     </row>
-    <row r="9" spans="1:36" ht="23.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:36" ht="23.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -3518,7 +3879,7 @@
       <c r="AI9" s="16"/>
       <c r="AJ9" s="16"/>
     </row>
-    <row r="10" spans="1:36" ht="23.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:36" ht="23.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -3569,7 +3930,7 @@
       <c r="AI10" s="16"/>
       <c r="AJ10" s="16"/>
     </row>
-    <row r="11" spans="1:36" ht="23.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:36" ht="23.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>17</v>
       </c>
@@ -3611,7 +3972,7 @@
       <c r="AI11" s="16"/>
       <c r="AJ11" s="16"/>
     </row>
-    <row r="12" spans="1:36" ht="23.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:36" ht="23.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -3662,7 +4023,7 @@
       <c r="AI12" s="16"/>
       <c r="AJ12" s="16"/>
     </row>
-    <row r="13" spans="1:36" ht="23.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:36" ht="23.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -3713,7 +4074,7 @@
       <c r="AI13" s="16"/>
       <c r="AJ13" s="16"/>
     </row>
-    <row r="14" spans="1:36" ht="23.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:36" ht="23.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -3764,7 +4125,7 @@
       <c r="AI14" s="16"/>
       <c r="AJ14" s="16"/>
     </row>
-    <row r="15" spans="1:36" ht="23.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:36" ht="23.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -3815,7 +4176,7 @@
       <c r="AI15" s="16"/>
       <c r="AJ15" s="16"/>
     </row>
-    <row r="16" spans="1:36" ht="23.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:36" ht="23.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>22</v>
       </c>
@@ -3857,7 +4218,7 @@
       <c r="AI16" s="16"/>
       <c r="AJ16" s="16"/>
     </row>
-    <row r="17" spans="1:36" ht="23.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:36" ht="23.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -3908,7 +4269,7 @@
       <c r="AI17" s="16"/>
       <c r="AJ17" s="16"/>
     </row>
-    <row r="18" spans="1:36" ht="23.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:36" ht="23.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -3959,7 +4320,7 @@
       <c r="AI18" s="16"/>
       <c r="AJ18" s="16"/>
     </row>
-    <row r="19" spans="1:36" ht="23.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:36" ht="23.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>25</v>
       </c>
@@ -4010,7 +4371,7 @@
       <c r="AI19" s="16"/>
       <c r="AJ19" s="16"/>
     </row>
-    <row r="20" spans="1:36" ht="23.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:36" ht="23.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>26</v>
       </c>
@@ -4091,7 +4452,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7:AJ20">
-    <cfRule type="expression" dxfId="1" priority="4">
+    <cfRule type="expression" dxfId="3" priority="4">
       <formula>AND(I$4&gt;=$E7,I$4&lt;=$G7)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4120,7 +4481,7 @@
                     <xdr:col>7</xdr:col>
                     <xdr:colOff>247650</xdr:colOff>
                     <xdr:row>6</xdr:row>
-                    <xdr:rowOff>260350</xdr:rowOff>
+                    <xdr:rowOff>257175</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -4142,7 +4503,7 @@
                     <xdr:col>7</xdr:col>
                     <xdr:colOff>247650</xdr:colOff>
                     <xdr:row>7</xdr:row>
-                    <xdr:rowOff>260350</xdr:rowOff>
+                    <xdr:rowOff>257175</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -4164,7 +4525,7 @@
                     <xdr:col>7</xdr:col>
                     <xdr:colOff>247650</xdr:colOff>
                     <xdr:row>8</xdr:row>
-                    <xdr:rowOff>260350</xdr:rowOff>
+                    <xdr:rowOff>257175</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -4186,7 +4547,7 @@
                     <xdr:col>7</xdr:col>
                     <xdr:colOff>247650</xdr:colOff>
                     <xdr:row>9</xdr:row>
-                    <xdr:rowOff>260350</xdr:rowOff>
+                    <xdr:rowOff>257175</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -4208,7 +4569,7 @@
                     <xdr:col>7</xdr:col>
                     <xdr:colOff>247650</xdr:colOff>
                     <xdr:row>11</xdr:row>
-                    <xdr:rowOff>260350</xdr:rowOff>
+                    <xdr:rowOff>257175</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -4230,7 +4591,7 @@
                     <xdr:col>7</xdr:col>
                     <xdr:colOff>247650</xdr:colOff>
                     <xdr:row>12</xdr:row>
-                    <xdr:rowOff>260350</xdr:rowOff>
+                    <xdr:rowOff>257175</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -4252,7 +4613,7 @@
                     <xdr:col>7</xdr:col>
                     <xdr:colOff>247650</xdr:colOff>
                     <xdr:row>13</xdr:row>
-                    <xdr:rowOff>260350</xdr:rowOff>
+                    <xdr:rowOff>257175</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -4274,7 +4635,7 @@
                     <xdr:col>7</xdr:col>
                     <xdr:colOff>247650</xdr:colOff>
                     <xdr:row>14</xdr:row>
-                    <xdr:rowOff>260350</xdr:rowOff>
+                    <xdr:rowOff>257175</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -4296,7 +4657,7 @@
                     <xdr:col>7</xdr:col>
                     <xdr:colOff>247650</xdr:colOff>
                     <xdr:row>16</xdr:row>
-                    <xdr:rowOff>260350</xdr:rowOff>
+                    <xdr:rowOff>257175</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -4318,7 +4679,7 @@
                     <xdr:col>7</xdr:col>
                     <xdr:colOff>247650</xdr:colOff>
                     <xdr:row>17</xdr:row>
-                    <xdr:rowOff>260350</xdr:rowOff>
+                    <xdr:rowOff>257175</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -4340,7 +4701,7 @@
                     <xdr:col>7</xdr:col>
                     <xdr:colOff>247650</xdr:colOff>
                     <xdr:row>18</xdr:row>
-                    <xdr:rowOff>260350</xdr:rowOff>
+                    <xdr:rowOff>257175</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -4362,7 +4723,7 @@
                     <xdr:col>7</xdr:col>
                     <xdr:colOff>247650</xdr:colOff>
                     <xdr:row>19</xdr:row>
-                    <xdr:rowOff>260350</xdr:rowOff>
+                    <xdr:rowOff>257175</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -4378,7 +4739,7 @@
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>0</xdr:row>
-                    <xdr:rowOff>222250</xdr:rowOff>
+                    <xdr:rowOff>219075</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>36</xdr:col>
@@ -4420,40 +4781,41 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3644728F-21C7-47C3-AAD3-1E6CBD0ADAEB}">
-  <dimension ref="A2:AX31"/>
+  <dimension ref="A2:AX38"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A28" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+      <selection activeCell="G50" sqref="G50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="4.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="4.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41.7265625" customWidth="1"/>
+    <col min="1" max="1" width="41.7109375" customWidth="1"/>
     <col min="2" max="2" width="29" customWidth="1"/>
-    <col min="3" max="3" width="15.81640625" customWidth="1"/>
-    <col min="4" max="4" width="13.7265625" style="36" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.81640625" customWidth="1"/>
-    <col min="6" max="6" width="14.54296875" customWidth="1"/>
-    <col min="7" max="7" width="5.54296875" customWidth="1"/>
-    <col min="8" max="35" width="4" customWidth="1"/>
-    <col min="36" max="36" width="15.1796875" customWidth="1"/>
-    <col min="39" max="39" width="15.1796875" customWidth="1"/>
-    <col min="50" max="50" width="12.1796875" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" style="36" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" customWidth="1"/>
+    <col min="7" max="7" width="5.5703125" customWidth="1"/>
+    <col min="8" max="34" width="4" customWidth="1"/>
+    <col min="35" max="35" width="3" customWidth="1"/>
+    <col min="36" max="36" width="15.140625" customWidth="1"/>
+    <col min="39" max="39" width="15.140625" customWidth="1"/>
+    <col min="50" max="50" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:50" x14ac:dyDescent="0.25">
       <c r="H2">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="I2" s="2">
         <f>E4+H2</f>
-        <v>45442</v>
+        <v>45503</v>
       </c>
     </row>
-    <row r="3" spans="1:50" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H3" s="56" t="str">
         <f>H5</f>
-        <v>jue</v>
+        <v>mar</v>
       </c>
       <c r="I3" s="56"/>
       <c r="J3" s="56"/>
@@ -4463,7 +4825,7 @@
       <c r="N3" s="56"/>
       <c r="O3" s="57">
         <f t="shared" ref="O3" si="0">O4</f>
-        <v>45449</v>
+        <v>45510</v>
       </c>
       <c r="P3" s="57"/>
       <c r="Q3" s="57"/>
@@ -4473,7 +4835,7 @@
       <c r="U3" s="57"/>
       <c r="V3" s="56">
         <f t="shared" ref="V3" si="1">V4</f>
-        <v>45456</v>
+        <v>45517</v>
       </c>
       <c r="W3" s="56"/>
       <c r="X3" s="56"/>
@@ -4483,7 +4845,7 @@
       <c r="AB3" s="56"/>
       <c r="AC3" s="57">
         <f t="shared" ref="AC3" si="2">AC4</f>
-        <v>45463</v>
+        <v>45524</v>
       </c>
       <c r="AD3" s="57"/>
       <c r="AE3" s="57"/>
@@ -4492,7 +4854,7 @@
       <c r="AH3" s="57"/>
       <c r="AI3" s="57"/>
     </row>
-    <row r="4" spans="1:50" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="46" t="s">
         <v>1</v>
       </c>
@@ -4505,115 +4867,115 @@
       <c r="F4" s="45"/>
       <c r="H4" s="30">
         <f>I2</f>
-        <v>45442</v>
+        <v>45503</v>
       </c>
       <c r="I4" s="30">
         <f>H4+1</f>
-        <v>45443</v>
+        <v>45504</v>
       </c>
       <c r="J4" s="30">
         <f t="shared" ref="J4:AI4" si="3">I4+1</f>
-        <v>45444</v>
+        <v>45505</v>
       </c>
       <c r="K4" s="30">
         <f t="shared" si="3"/>
-        <v>45445</v>
+        <v>45506</v>
       </c>
       <c r="L4" s="30">
         <f t="shared" si="3"/>
-        <v>45446</v>
+        <v>45507</v>
       </c>
       <c r="M4" s="30">
         <f t="shared" si="3"/>
-        <v>45447</v>
+        <v>45508</v>
       </c>
       <c r="N4" s="30">
         <f t="shared" si="3"/>
-        <v>45448</v>
+        <v>45509</v>
       </c>
       <c r="O4" s="28">
         <f t="shared" si="3"/>
-        <v>45449</v>
+        <v>45510</v>
       </c>
       <c r="P4" s="28">
         <f t="shared" si="3"/>
-        <v>45450</v>
+        <v>45511</v>
       </c>
       <c r="Q4" s="28">
         <f t="shared" si="3"/>
-        <v>45451</v>
+        <v>45512</v>
       </c>
       <c r="R4" s="28">
         <f t="shared" si="3"/>
-        <v>45452</v>
+        <v>45513</v>
       </c>
       <c r="S4" s="28">
         <f t="shared" si="3"/>
-        <v>45453</v>
+        <v>45514</v>
       </c>
       <c r="T4" s="28">
         <f t="shared" si="3"/>
-        <v>45454</v>
+        <v>45515</v>
       </c>
       <c r="U4" s="28">
         <f t="shared" si="3"/>
-        <v>45455</v>
+        <v>45516</v>
       </c>
       <c r="V4" s="30">
         <f t="shared" si="3"/>
-        <v>45456</v>
+        <v>45517</v>
       </c>
       <c r="W4" s="30">
         <f t="shared" si="3"/>
-        <v>45457</v>
+        <v>45518</v>
       </c>
       <c r="X4" s="30">
         <f t="shared" si="3"/>
-        <v>45458</v>
+        <v>45519</v>
       </c>
       <c r="Y4" s="30">
         <f t="shared" si="3"/>
-        <v>45459</v>
+        <v>45520</v>
       </c>
       <c r="Z4" s="30">
         <f t="shared" si="3"/>
-        <v>45460</v>
+        <v>45521</v>
       </c>
       <c r="AA4" s="30">
         <f t="shared" si="3"/>
-        <v>45461</v>
+        <v>45522</v>
       </c>
       <c r="AB4" s="30">
         <f t="shared" si="3"/>
-        <v>45462</v>
+        <v>45523</v>
       </c>
       <c r="AC4" s="28">
         <f t="shared" si="3"/>
-        <v>45463</v>
+        <v>45524</v>
       </c>
       <c r="AD4" s="28">
         <f t="shared" si="3"/>
-        <v>45464</v>
+        <v>45525</v>
       </c>
       <c r="AE4" s="28">
         <f t="shared" si="3"/>
-        <v>45465</v>
+        <v>45526</v>
       </c>
       <c r="AF4" s="28">
         <f t="shared" si="3"/>
-        <v>45466</v>
+        <v>45527</v>
       </c>
       <c r="AG4" s="28">
         <f t="shared" si="3"/>
-        <v>45467</v>
+        <v>45528</v>
       </c>
       <c r="AH4" s="28">
         <f t="shared" si="3"/>
-        <v>45468</v>
+        <v>45529</v>
       </c>
       <c r="AI4" s="28">
         <f t="shared" si="3"/>
-        <v>45469</v>
+        <v>45530</v>
       </c>
       <c r="AJ4" s="2"/>
       <c r="AK4" s="2"/>
@@ -4631,7 +4993,7 @@
       <c r="AW4" s="2"/>
       <c r="AX4" s="2"/>
     </row>
-    <row r="5" spans="1:50" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:50" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
@@ -4652,118 +5014,118 @@
       </c>
       <c r="H5" s="31" t="str">
         <f>TEXT(H4,"ddd")</f>
-        <v>jue</v>
+        <v>mar</v>
       </c>
       <c r="I5" s="31" t="str">
         <f t="shared" ref="I5:AI5" si="4">TEXT(I4,"ddd")</f>
-        <v>vie</v>
+        <v>mié</v>
       </c>
       <c r="J5" s="31" t="str">
         <f t="shared" si="4"/>
-        <v>sáb</v>
+        <v>jue</v>
       </c>
       <c r="K5" s="31" t="str">
         <f t="shared" si="4"/>
-        <v>dom</v>
+        <v>vie</v>
       </c>
       <c r="L5" s="31" t="str">
         <f t="shared" si="4"/>
-        <v>lun</v>
+        <v>sáb</v>
       </c>
       <c r="M5" s="31" t="str">
         <f t="shared" si="4"/>
-        <v>mar</v>
+        <v>dom</v>
       </c>
       <c r="N5" s="31" t="str">
         <f t="shared" si="4"/>
-        <v>mié</v>
+        <v>lun</v>
       </c>
       <c r="O5" s="29" t="str">
         <f t="shared" si="4"/>
-        <v>jue</v>
+        <v>mar</v>
       </c>
       <c r="P5" s="29" t="str">
         <f t="shared" si="4"/>
-        <v>vie</v>
+        <v>mié</v>
       </c>
       <c r="Q5" s="29" t="str">
         <f t="shared" si="4"/>
-        <v>sáb</v>
+        <v>jue</v>
       </c>
       <c r="R5" s="29" t="str">
         <f t="shared" si="4"/>
-        <v>dom</v>
+        <v>vie</v>
       </c>
       <c r="S5" s="29" t="str">
         <f t="shared" si="4"/>
-        <v>lun</v>
+        <v>sáb</v>
       </c>
       <c r="T5" s="29" t="str">
         <f t="shared" si="4"/>
-        <v>mar</v>
+        <v>dom</v>
       </c>
       <c r="U5" s="29" t="str">
         <f t="shared" si="4"/>
-        <v>mié</v>
+        <v>lun</v>
       </c>
       <c r="V5" s="31" t="str">
         <f t="shared" si="4"/>
-        <v>jue</v>
+        <v>mar</v>
       </c>
       <c r="W5" s="31" t="str">
         <f t="shared" si="4"/>
-        <v>vie</v>
+        <v>mié</v>
       </c>
       <c r="X5" s="31" t="str">
         <f t="shared" si="4"/>
-        <v>sáb</v>
+        <v>jue</v>
       </c>
       <c r="Y5" s="31" t="str">
         <f t="shared" si="4"/>
-        <v>dom</v>
+        <v>vie</v>
       </c>
       <c r="Z5" s="31" t="str">
         <f t="shared" si="4"/>
-        <v>lun</v>
+        <v>sáb</v>
       </c>
       <c r="AA5" s="31" t="str">
         <f t="shared" si="4"/>
-        <v>mar</v>
+        <v>dom</v>
       </c>
       <c r="AB5" s="31" t="str">
         <f t="shared" si="4"/>
-        <v>mié</v>
+        <v>lun</v>
       </c>
       <c r="AC5" s="29" t="str">
         <f t="shared" si="4"/>
-        <v>jue</v>
+        <v>mar</v>
       </c>
       <c r="AD5" s="29" t="str">
         <f t="shared" si="4"/>
-        <v>vie</v>
+        <v>mié</v>
       </c>
       <c r="AE5" s="29" t="str">
         <f t="shared" si="4"/>
-        <v>sáb</v>
+        <v>jue</v>
       </c>
       <c r="AF5" s="29" t="str">
         <f t="shared" si="4"/>
-        <v>dom</v>
+        <v>vie</v>
       </c>
       <c r="AG5" s="29" t="str">
         <f t="shared" si="4"/>
-        <v>lun</v>
+        <v>sáb</v>
       </c>
       <c r="AH5" s="29" t="str">
         <f t="shared" si="4"/>
-        <v>mar</v>
+        <v>dom</v>
       </c>
       <c r="AI5" s="29" t="str">
         <f t="shared" si="4"/>
-        <v>mié</v>
+        <v>lun</v>
       </c>
     </row>
-    <row r="6" spans="1:50" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:50" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>28</v>
       </c>
@@ -4796,7 +5158,7 @@
       <c r="AH6" s="15"/>
       <c r="AI6" s="15"/>
     </row>
-    <row r="7" spans="1:50" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:50" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>29</v>
       </c>
@@ -4844,7 +5206,7 @@
       <c r="AH7" s="15"/>
       <c r="AI7" s="15"/>
     </row>
-    <row r="8" spans="1:50" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:50" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>31</v>
       </c>
@@ -4893,7 +5255,7 @@
       <c r="AH8" s="15"/>
       <c r="AI8" s="15"/>
     </row>
-    <row r="9" spans="1:50" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:50" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>32</v>
       </c>
@@ -4941,7 +5303,7 @@
       <c r="AH9" s="15"/>
       <c r="AI9" s="15"/>
     </row>
-    <row r="10" spans="1:50" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:50" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>34</v>
       </c>
@@ -4989,7 +5351,7 @@
       <c r="AH10" s="15"/>
       <c r="AI10" s="15"/>
     </row>
-    <row r="11" spans="1:50" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:50" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>35</v>
       </c>
@@ -5037,7 +5399,7 @@
       <c r="AH11" s="15"/>
       <c r="AI11" s="15"/>
     </row>
-    <row r="12" spans="1:50" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:50" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>36</v>
       </c>
@@ -5085,7 +5447,7 @@
       <c r="AH12" s="15"/>
       <c r="AI12" s="15"/>
     </row>
-    <row r="13" spans="1:50" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:50" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>37</v>
       </c>
@@ -5133,7 +5495,7 @@
       <c r="AH13" s="15"/>
       <c r="AI13" s="15"/>
     </row>
-    <row r="14" spans="1:50" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:50" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>38</v>
       </c>
@@ -5181,7 +5543,7 @@
       <c r="AH14" s="15"/>
       <c r="AI14" s="15"/>
     </row>
-    <row r="15" spans="1:50" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:50" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>39</v>
       </c>
@@ -5218,7 +5580,7 @@
       <c r="AH15" s="15"/>
       <c r="AI15" s="15"/>
     </row>
-    <row r="16" spans="1:50" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:50" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>40</v>
       </c>
@@ -5267,7 +5629,7 @@
       <c r="AH16" s="15"/>
       <c r="AI16" s="15"/>
     </row>
-    <row r="17" spans="1:35" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:35" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>41</v>
       </c>
@@ -5304,7 +5666,7 @@
       <c r="AH17" s="15"/>
       <c r="AI17" s="15"/>
     </row>
-    <row r="18" spans="1:35" ht="30.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:35" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>42</v>
       </c>
@@ -5352,7 +5714,7 @@
       <c r="AH18" s="15"/>
       <c r="AI18" s="15"/>
     </row>
-    <row r="19" spans="1:35" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:35" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>43</v>
       </c>
@@ -5400,7 +5762,7 @@
       <c r="AH19" s="32"/>
       <c r="AI19" s="32"/>
     </row>
-    <row r="20" spans="1:35" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:35" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>44</v>
       </c>
@@ -5448,7 +5810,7 @@
       <c r="AH20" s="32"/>
       <c r="AI20" s="32"/>
     </row>
-    <row r="21" spans="1:35" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:35" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>45</v>
       </c>
@@ -5496,7 +5858,7 @@
       <c r="AH21" s="32"/>
       <c r="AI21" s="32"/>
     </row>
-    <row r="22" spans="1:35" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:35" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>46</v>
       </c>
@@ -5533,7 +5895,7 @@
       <c r="AH22" s="15"/>
       <c r="AI22" s="15"/>
     </row>
-    <row r="23" spans="1:35" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:35" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>47</v>
       </c>
@@ -5582,7 +5944,7 @@
       <c r="AH23" s="15"/>
       <c r="AI23" s="15"/>
     </row>
-    <row r="24" spans="1:35" ht="24.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:35" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>49</v>
       </c>
@@ -5630,7 +5992,7 @@
       <c r="AH24" s="15"/>
       <c r="AI24" s="15"/>
     </row>
-    <row r="25" spans="1:35" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:35" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>51</v>
       </c>
@@ -5678,7 +6040,7 @@
       <c r="AH25" s="15"/>
       <c r="AI25" s="15"/>
     </row>
-    <row r="26" spans="1:35" ht="40.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:35" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>53</v>
       </c>
@@ -5715,7 +6077,7 @@
       <c r="AH26" s="15"/>
       <c r="AI26" s="15"/>
     </row>
-    <row r="27" spans="1:35" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:35" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>54</v>
       </c>
@@ -5729,7 +6091,7 @@
         <v>45444</v>
       </c>
       <c r="E27" s="34">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F27" s="33">
         <v>45446</v>
@@ -5763,7 +6125,7 @@
       <c r="AH27" s="15"/>
       <c r="AI27" s="15"/>
     </row>
-    <row r="28" spans="1:35" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:35" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>55</v>
       </c>
@@ -5811,7 +6173,7 @@
       <c r="AH28" s="15"/>
       <c r="AI28" s="15"/>
     </row>
-    <row r="29" spans="1:35" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:35" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>57</v>
       </c>
@@ -5859,7 +6221,7 @@
       <c r="AH29" s="15"/>
       <c r="AI29" s="15"/>
     </row>
-    <row r="30" spans="1:35" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:35" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>58</v>
       </c>
@@ -5907,7 +6269,7 @@
       <c r="AH30" s="15"/>
       <c r="AI30" s="15"/>
     </row>
-    <row r="31" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:35" x14ac:dyDescent="0.25">
       <c r="H31" s="32"/>
       <c r="I31" s="32"/>
       <c r="J31" s="32"/>
@@ -5937,6 +6299,327 @@
       <c r="AH31" s="15"/>
       <c r="AI31" s="15"/>
     </row>
+    <row r="32" spans="1:35" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C32" s="26"/>
+      <c r="D32" s="38"/>
+      <c r="E32" s="34"/>
+      <c r="F32" s="33"/>
+      <c r="H32" s="32"/>
+      <c r="I32" s="32"/>
+      <c r="J32" s="32"/>
+      <c r="K32" s="32"/>
+      <c r="L32" s="32"/>
+      <c r="M32" s="32"/>
+      <c r="N32" s="32"/>
+      <c r="O32" s="15"/>
+      <c r="P32" s="15"/>
+      <c r="Q32" s="15"/>
+      <c r="R32" s="15"/>
+      <c r="S32" s="15"/>
+      <c r="T32" s="15"/>
+      <c r="U32" s="15"/>
+      <c r="V32" s="32"/>
+      <c r="W32" s="32"/>
+      <c r="X32" s="32"/>
+      <c r="Y32" s="32"/>
+      <c r="Z32" s="32"/>
+      <c r="AA32" s="32"/>
+      <c r="AB32" s="32"/>
+      <c r="AC32" s="15"/>
+      <c r="AD32" s="15"/>
+      <c r="AE32" s="15"/>
+      <c r="AF32" s="15"/>
+      <c r="AG32" s="15"/>
+      <c r="AH32" s="15"/>
+      <c r="AI32" s="15"/>
+    </row>
+    <row r="33" spans="1:35" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>61</v>
+      </c>
+      <c r="B33" t="s">
+        <v>30</v>
+      </c>
+      <c r="C33" s="26">
+        <v>1</v>
+      </c>
+      <c r="D33" s="38">
+        <v>45516</v>
+      </c>
+      <c r="E33" s="34">
+        <v>2</v>
+      </c>
+      <c r="F33" s="33">
+        <v>45517</v>
+      </c>
+      <c r="H33" s="32"/>
+      <c r="I33" s="32"/>
+      <c r="J33" s="32"/>
+      <c r="K33" s="32"/>
+      <c r="L33" s="32"/>
+      <c r="M33" s="32"/>
+      <c r="N33" s="32"/>
+      <c r="O33" s="15"/>
+      <c r="P33" s="15"/>
+      <c r="Q33" s="15"/>
+      <c r="R33" s="15"/>
+      <c r="S33" s="15"/>
+      <c r="T33" s="15"/>
+      <c r="U33" s="15"/>
+      <c r="V33" s="32"/>
+      <c r="W33" s="32"/>
+      <c r="X33" s="32"/>
+      <c r="Y33" s="32"/>
+      <c r="Z33" s="32"/>
+      <c r="AA33" s="32"/>
+      <c r="AB33" s="32"/>
+      <c r="AC33" s="15"/>
+      <c r="AD33" s="15"/>
+      <c r="AE33" s="15"/>
+      <c r="AF33" s="15"/>
+      <c r="AG33" s="15"/>
+      <c r="AH33" s="15"/>
+      <c r="AI33" s="15"/>
+    </row>
+    <row r="34" spans="1:35" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>62</v>
+      </c>
+      <c r="B34" t="s">
+        <v>59</v>
+      </c>
+      <c r="C34" s="26">
+        <v>1</v>
+      </c>
+      <c r="D34" s="38">
+        <v>45527</v>
+      </c>
+      <c r="E34" s="35">
+        <v>1</v>
+      </c>
+      <c r="F34" s="33">
+        <v>45527</v>
+      </c>
+      <c r="H34" s="32"/>
+      <c r="I34" s="32"/>
+      <c r="J34" s="32"/>
+      <c r="K34" s="32"/>
+      <c r="L34" s="32"/>
+      <c r="M34" s="32"/>
+      <c r="N34" s="32"/>
+      <c r="O34" s="15"/>
+      <c r="P34" s="15"/>
+      <c r="Q34" s="15"/>
+      <c r="R34" s="15"/>
+      <c r="S34" s="15"/>
+      <c r="T34" s="15"/>
+      <c r="U34" s="15"/>
+      <c r="V34" s="32"/>
+      <c r="W34" s="32"/>
+      <c r="X34" s="32"/>
+      <c r="Y34" s="32"/>
+      <c r="Z34" s="32"/>
+      <c r="AA34" s="32"/>
+      <c r="AB34" s="32"/>
+      <c r="AC34" s="15"/>
+      <c r="AD34" s="15"/>
+      <c r="AE34" s="15"/>
+      <c r="AF34" s="15"/>
+      <c r="AG34" s="15"/>
+      <c r="AH34" s="15"/>
+      <c r="AI34" s="15"/>
+    </row>
+    <row r="35" spans="1:35" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>63</v>
+      </c>
+      <c r="B35" t="s">
+        <v>64</v>
+      </c>
+      <c r="C35" s="26">
+        <v>0.8</v>
+      </c>
+      <c r="D35" s="36">
+        <v>45530</v>
+      </c>
+      <c r="E35" s="35"/>
+      <c r="F35" s="36"/>
+      <c r="H35" s="32"/>
+      <c r="I35" s="32"/>
+      <c r="J35" s="32"/>
+      <c r="K35" s="32"/>
+      <c r="L35" s="32"/>
+      <c r="M35" s="32"/>
+      <c r="N35" s="32"/>
+      <c r="O35" s="15"/>
+      <c r="P35" s="15"/>
+      <c r="Q35" s="15"/>
+      <c r="R35" s="15"/>
+      <c r="S35" s="15"/>
+      <c r="T35" s="15"/>
+      <c r="U35" s="15"/>
+      <c r="V35" s="32"/>
+      <c r="W35" s="32"/>
+      <c r="X35" s="32"/>
+      <c r="Y35" s="32"/>
+      <c r="Z35" s="32"/>
+      <c r="AA35" s="32"/>
+      <c r="AB35" s="32"/>
+      <c r="AC35" s="15"/>
+      <c r="AD35" s="15"/>
+      <c r="AE35" s="15"/>
+      <c r="AF35" s="15"/>
+      <c r="AG35" s="15"/>
+      <c r="AH35" s="15"/>
+      <c r="AI35" s="15"/>
+    </row>
+    <row r="36" spans="1:35" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>65</v>
+      </c>
+      <c r="B36" t="s">
+        <v>59</v>
+      </c>
+      <c r="C36" s="26">
+        <v>1</v>
+      </c>
+      <c r="D36" s="36">
+        <v>45527</v>
+      </c>
+      <c r="E36" s="35">
+        <v>1</v>
+      </c>
+      <c r="F36" s="36">
+        <v>45527</v>
+      </c>
+      <c r="H36" s="32"/>
+      <c r="I36" s="32"/>
+      <c r="J36" s="32"/>
+      <c r="K36" s="32"/>
+      <c r="L36" s="32"/>
+      <c r="M36" s="32"/>
+      <c r="N36" s="32"/>
+      <c r="O36" s="15"/>
+      <c r="P36" s="15"/>
+      <c r="Q36" s="15"/>
+      <c r="R36" s="15"/>
+      <c r="S36" s="15"/>
+      <c r="T36" s="15"/>
+      <c r="U36" s="15"/>
+      <c r="V36" s="32"/>
+      <c r="W36" s="32"/>
+      <c r="X36" s="32"/>
+      <c r="Y36" s="32"/>
+      <c r="Z36" s="32"/>
+      <c r="AA36" s="32"/>
+      <c r="AB36" s="32"/>
+      <c r="AC36" s="15"/>
+      <c r="AD36" s="15"/>
+      <c r="AE36" s="15"/>
+      <c r="AF36" s="15"/>
+      <c r="AG36" s="15"/>
+      <c r="AH36" s="15"/>
+      <c r="AI36" s="15"/>
+    </row>
+    <row r="37" spans="1:35" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>66</v>
+      </c>
+      <c r="B37" t="s">
+        <v>59</v>
+      </c>
+      <c r="C37" s="26">
+        <v>1</v>
+      </c>
+      <c r="D37" s="36">
+        <v>45527</v>
+      </c>
+      <c r="E37" s="35">
+        <v>4</v>
+      </c>
+      <c r="F37" s="36">
+        <v>45531</v>
+      </c>
+      <c r="H37" s="32"/>
+      <c r="I37" s="32"/>
+      <c r="J37" s="32"/>
+      <c r="K37" s="32"/>
+      <c r="L37" s="32"/>
+      <c r="M37" s="32"/>
+      <c r="N37" s="32"/>
+      <c r="O37" s="15"/>
+      <c r="P37" s="15"/>
+      <c r="Q37" s="15"/>
+      <c r="R37" s="15"/>
+      <c r="S37" s="15"/>
+      <c r="T37" s="15"/>
+      <c r="U37" s="15"/>
+      <c r="V37" s="32"/>
+      <c r="W37" s="32"/>
+      <c r="X37" s="32"/>
+      <c r="Y37" s="32"/>
+      <c r="Z37" s="32"/>
+      <c r="AA37" s="32"/>
+      <c r="AB37" s="32"/>
+      <c r="AC37" s="15"/>
+      <c r="AD37" s="15"/>
+      <c r="AE37" s="15"/>
+      <c r="AF37" s="15"/>
+      <c r="AG37" s="15"/>
+      <c r="AH37" s="15"/>
+      <c r="AI37" s="15"/>
+    </row>
+    <row r="38" spans="1:35" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>67</v>
+      </c>
+      <c r="B38" t="s">
+        <v>59</v>
+      </c>
+      <c r="C38" s="26">
+        <v>1</v>
+      </c>
+      <c r="D38" s="36">
+        <v>45527</v>
+      </c>
+      <c r="E38" s="35">
+        <v>12</v>
+      </c>
+      <c r="F38" s="36">
+        <v>45531</v>
+      </c>
+      <c r="H38" s="32"/>
+      <c r="I38" s="32"/>
+      <c r="J38" s="32"/>
+      <c r="K38" s="32"/>
+      <c r="L38" s="32"/>
+      <c r="M38" s="32"/>
+      <c r="N38" s="32"/>
+      <c r="O38" s="15"/>
+      <c r="P38" s="15"/>
+      <c r="Q38" s="15"/>
+      <c r="R38" s="15"/>
+      <c r="S38" s="15"/>
+      <c r="T38" s="15"/>
+      <c r="U38" s="15"/>
+      <c r="V38" s="32"/>
+      <c r="W38" s="32"/>
+      <c r="X38" s="32"/>
+      <c r="Y38" s="32"/>
+      <c r="Z38" s="32"/>
+      <c r="AA38" s="32"/>
+      <c r="AB38" s="32"/>
+      <c r="AC38" s="15"/>
+      <c r="AD38" s="15"/>
+      <c r="AE38" s="15"/>
+      <c r="AF38" s="15"/>
+      <c r="AG38" s="15"/>
+      <c r="AH38" s="15"/>
+      <c r="AI38" s="15"/>
+    </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="A4:D4"/>
@@ -5948,7 +6631,7 @@
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="C7:C16">
-    <cfRule type="dataBar" priority="20">
+    <cfRule type="dataBar" priority="24">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5962,7 +6645,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17:C21">
-    <cfRule type="dataBar" priority="4">
+    <cfRule type="dataBar" priority="8">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5976,7 +6659,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C22:C24">
-    <cfRule type="dataBar" priority="21">
+    <cfRule type="dataBar" priority="25">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5990,7 +6673,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25">
-    <cfRule type="dataBar" priority="22">
+    <cfRule type="dataBar" priority="26">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6004,7 +6687,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26:C30">
-    <cfRule type="dataBar" priority="1">
+    <cfRule type="dataBar" priority="5">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6017,9 +6700,33 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H7:AI31">
-    <cfRule type="expression" dxfId="0" priority="5">
+  <conditionalFormatting sqref="H7:AI36">
+    <cfRule type="expression" dxfId="2" priority="9">
       <formula>AND(H$4&gt;=$D7,H$4&lt;=$F7)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C32:C38">
+    <cfRule type="dataBar" priority="27">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{DE8B956F-0DF2-40F2-9A5C-84BEFCA52E4C}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H37:AI37">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>AND(H$4&gt;=$D37,H$4&lt;=$F37)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H38:AI38">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>AND(H$4&gt;=$D38,H$4&lt;=$F38)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6038,13 +6745,13 @@
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>19050</xdr:colOff>
                     <xdr:row>6</xdr:row>
-                    <xdr:rowOff>12700</xdr:rowOff>
+                    <xdr:rowOff>9525</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>298450</xdr:colOff>
+                    <xdr:colOff>295275</xdr:colOff>
                     <xdr:row>6</xdr:row>
-                    <xdr:rowOff>279400</xdr:rowOff>
+                    <xdr:rowOff>276225</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -6060,13 +6767,13 @@
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>19050</xdr:colOff>
                     <xdr:row>7</xdr:row>
-                    <xdr:rowOff>12700</xdr:rowOff>
+                    <xdr:rowOff>9525</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>298450</xdr:colOff>
+                    <xdr:colOff>295275</xdr:colOff>
                     <xdr:row>7</xdr:row>
-                    <xdr:rowOff>279400</xdr:rowOff>
+                    <xdr:rowOff>276225</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -6086,9 +6793,9 @@
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>298450</xdr:colOff>
+                    <xdr:colOff>295275</xdr:colOff>
                     <xdr:row>8</xdr:row>
-                    <xdr:rowOff>279400</xdr:rowOff>
+                    <xdr:rowOff>276225</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -6108,7 +6815,7 @@
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>298450</xdr:colOff>
+                    <xdr:colOff>295275</xdr:colOff>
                     <xdr:row>9</xdr:row>
                     <xdr:rowOff>285750</xdr:rowOff>
                   </to>
@@ -6130,7 +6837,7 @@
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>298450</xdr:colOff>
+                    <xdr:colOff>295275</xdr:colOff>
                     <xdr:row>10</xdr:row>
                     <xdr:rowOff>266700</xdr:rowOff>
                   </to>
@@ -6152,9 +6859,9 @@
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>298450</xdr:colOff>
+                    <xdr:colOff>295275</xdr:colOff>
                     <xdr:row>11</xdr:row>
-                    <xdr:rowOff>279400</xdr:rowOff>
+                    <xdr:rowOff>276225</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -6174,7 +6881,7 @@
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>298450</xdr:colOff>
+                    <xdr:colOff>295275</xdr:colOff>
                     <xdr:row>12</xdr:row>
                     <xdr:rowOff>266700</xdr:rowOff>
                   </to>
@@ -6196,7 +6903,7 @@
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>298450</xdr:colOff>
+                    <xdr:colOff>295275</xdr:colOff>
                     <xdr:row>13</xdr:row>
                     <xdr:rowOff>266700</xdr:rowOff>
                   </to>
@@ -6214,13 +6921,13 @@
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>19050</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>31750</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>298450</xdr:colOff>
+                    <xdr:colOff>295275</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>260350</xdr:rowOff>
+                    <xdr:rowOff>257175</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -6234,15 +6941,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>7</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>0</xdr:row>
                     <xdr:rowOff>57150</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>35</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>76200</xdr:colOff>
                     <xdr:row>1</xdr:row>
-                    <xdr:rowOff>146050</xdr:rowOff>
+                    <xdr:rowOff>142875</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -6262,7 +6969,7 @@
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>298450</xdr:colOff>
+                    <xdr:colOff>295275</xdr:colOff>
                     <xdr:row>16</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -6284,7 +6991,7 @@
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>298450</xdr:colOff>
+                    <xdr:colOff>295275</xdr:colOff>
                     <xdr:row>17</xdr:row>
                     <xdr:rowOff>266700</xdr:rowOff>
                   </to>
@@ -6302,13 +7009,13 @@
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>19050</xdr:colOff>
                     <xdr:row>18</xdr:row>
-                    <xdr:rowOff>31750</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>298450</xdr:colOff>
+                    <xdr:colOff>295275</xdr:colOff>
                     <xdr:row>18</xdr:row>
-                    <xdr:rowOff>260350</xdr:rowOff>
+                    <xdr:rowOff>257175</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -6324,13 +7031,13 @@
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>19050</xdr:colOff>
                     <xdr:row>20</xdr:row>
-                    <xdr:rowOff>31750</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>298450</xdr:colOff>
+                    <xdr:colOff>295275</xdr:colOff>
                     <xdr:row>20</xdr:row>
-                    <xdr:rowOff>260350</xdr:rowOff>
+                    <xdr:rowOff>257175</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -6350,7 +7057,7 @@
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>298450</xdr:colOff>
+                    <xdr:colOff>295275</xdr:colOff>
                     <xdr:row>22</xdr:row>
                     <xdr:rowOff>266700</xdr:rowOff>
                   </to>
@@ -6368,13 +7075,13 @@
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>19050</xdr:colOff>
                     <xdr:row>23</xdr:row>
-                    <xdr:rowOff>31750</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>298450</xdr:colOff>
+                    <xdr:colOff>295275</xdr:colOff>
                     <xdr:row>23</xdr:row>
-                    <xdr:rowOff>260350</xdr:rowOff>
+                    <xdr:rowOff>257175</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -6394,7 +7101,7 @@
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>298450</xdr:colOff>
+                    <xdr:colOff>295275</xdr:colOff>
                     <xdr:row>24</xdr:row>
                     <xdr:rowOff>266700</xdr:rowOff>
                   </to>
@@ -6416,7 +7123,7 @@
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>298450</xdr:colOff>
+                    <xdr:colOff>295275</xdr:colOff>
                     <xdr:row>26</xdr:row>
                     <xdr:rowOff>266700</xdr:rowOff>
                   </to>
@@ -6434,13 +7141,13 @@
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>19050</xdr:colOff>
                     <xdr:row>27</xdr:row>
-                    <xdr:rowOff>31750</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>298450</xdr:colOff>
+                    <xdr:colOff>295275</xdr:colOff>
                     <xdr:row>27</xdr:row>
-                    <xdr:rowOff>260350</xdr:rowOff>
+                    <xdr:rowOff>257175</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -6456,13 +7163,13 @@
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>19050</xdr:colOff>
                     <xdr:row>28</xdr:row>
-                    <xdr:rowOff>31750</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>298450</xdr:colOff>
+                    <xdr:colOff>295275</xdr:colOff>
                     <xdr:row>28</xdr:row>
-                    <xdr:rowOff>260350</xdr:rowOff>
+                    <xdr:rowOff>257175</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -6478,13 +7185,13 @@
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>19050</xdr:colOff>
                     <xdr:row>19</xdr:row>
-                    <xdr:rowOff>31750</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>298450</xdr:colOff>
+                    <xdr:colOff>295275</xdr:colOff>
                     <xdr:row>19</xdr:row>
-                    <xdr:rowOff>260350</xdr:rowOff>
+                    <xdr:rowOff>257175</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -6500,13 +7207,145 @@
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>19050</xdr:colOff>
                     <xdr:row>29</xdr:row>
-                    <xdr:rowOff>31750</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>298450</xdr:colOff>
+                    <xdr:colOff>295275</xdr:colOff>
                     <xdr:row>29</xdr:row>
-                    <xdr:rowOff>260350</xdr:rowOff>
+                    <xdr:rowOff>257175</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="2113" r:id="rId26" name="Spinner 65">
+              <controlPr defaultSize="0" autoPict="0">
+                <anchor moveWithCells="1" sizeWithCells="1">
+                  <from>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>19050</xdr:colOff>
+                    <xdr:row>32</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>295275</xdr:colOff>
+                    <xdr:row>32</xdr:row>
+                    <xdr:rowOff>266700</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="2114" r:id="rId27" name="Spinner 66">
+              <controlPr defaultSize="0" autoPict="0">
+                <anchor moveWithCells="1" sizeWithCells="1">
+                  <from>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>19050</xdr:colOff>
+                    <xdr:row>33</xdr:row>
+                    <xdr:rowOff>28575</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>295275</xdr:colOff>
+                    <xdr:row>33</xdr:row>
+                    <xdr:rowOff>257175</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="2115" r:id="rId28" name="Spinner 67">
+              <controlPr defaultSize="0" autoPict="0">
+                <anchor moveWithCells="1" sizeWithCells="1">
+                  <from>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>19050</xdr:colOff>
+                    <xdr:row>34</xdr:row>
+                    <xdr:rowOff>28575</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>295275</xdr:colOff>
+                    <xdr:row>34</xdr:row>
+                    <xdr:rowOff>257175</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="2117" r:id="rId29" name="Spinner 69">
+              <controlPr defaultSize="0" autoPict="0">
+                <anchor moveWithCells="1" sizeWithCells="1">
+                  <from>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>19050</xdr:colOff>
+                    <xdr:row>35</xdr:row>
+                    <xdr:rowOff>28575</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>295275</xdr:colOff>
+                    <xdr:row>35</xdr:row>
+                    <xdr:rowOff>257175</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="2118" r:id="rId30" name="Spinner 70">
+              <controlPr defaultSize="0" autoPict="0">
+                <anchor moveWithCells="1" sizeWithCells="1">
+                  <from>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>19050</xdr:colOff>
+                    <xdr:row>36</xdr:row>
+                    <xdr:rowOff>28575</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>295275</xdr:colOff>
+                    <xdr:row>36</xdr:row>
+                    <xdr:rowOff>257175</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="2119" r:id="rId31" name="Spinner 71">
+              <controlPr defaultSize="0" autoPict="0">
+                <anchor moveWithCells="1" sizeWithCells="1">
+                  <from>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>19050</xdr:colOff>
+                    <xdr:row>37</xdr:row>
+                    <xdr:rowOff>28575</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>295275</xdr:colOff>
+                    <xdr:row>37</xdr:row>
+                    <xdr:rowOff>257175</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -6574,6 +7413,17 @@
           </x14:cfRule>
           <xm:sqref>C26:C30</xm:sqref>
         </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{DE8B956F-0DF2-40F2-9A5C-84BEFCA52E4C}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>C32:C38</xm:sqref>
+        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
   </extLst>
